--- a/coffee_data.xlsx
+++ b/coffee_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilang.muhamad\CS Degree\3rd Semester\CS-662 Expert System\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA442036-FB4B-4977-8FF6-E04F15728053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28B0772-7B58-4747-B8A8-3A6A752AA09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3319D7D9-D465-4F95-90DE-AB931EA359D4}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,50 +514,50 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -565,13 +565,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -582,10 +582,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -594,15 +594,15 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -611,46 +611,46 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -667,13 +667,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -684,36 +684,36 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -770,7 +770,7 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{591D532B-FB32-48BB-8F63-B44FAD2F724A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
-      <sortCondition ref="A1"/>
+      <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
